--- a/teaching/traditional_assets/database/data/spain/spain_coal_related_energy.xlsx
+++ b/teaching/traditional_assets/database/data/spain/spain_coal_related_energy.xlsx
@@ -590,26 +590,8 @@
           <t>Coal &amp; Related Energy</t>
         </is>
       </c>
-      <c r="D2">
-        <v>0.15</v>
-      </c>
-      <c r="G2">
-        <v>-3.097560975609756</v>
-      </c>
-      <c r="H2">
-        <v>-3.097560975609756</v>
-      </c>
-      <c r="I2">
-        <v>-3.201219512195122</v>
-      </c>
-      <c r="J2">
-        <v>-3.201219512195122</v>
-      </c>
       <c r="K2">
-        <v>24.1</v>
-      </c>
-      <c r="L2">
-        <v>14.69512195121951</v>
+        <v>-29.6</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -618,7 +600,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -627,73 +609,76 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>67.7</v>
+        <v>63.4</v>
       </c>
       <c r="V2">
-        <v>1.6925</v>
+        <v>0.4446002805049089</v>
       </c>
       <c r="W2">
-        <v>0.6965317919075145</v>
+        <v>-0.5304659498207885</v>
       </c>
       <c r="X2">
-        <v>0.1463381932805294</v>
+        <v>0.08085818873074019</v>
       </c>
       <c r="Y2">
-        <v>0.5501935986269851</v>
+        <v>-0.6113241385515287</v>
       </c>
       <c r="Z2">
-        <v>0.1451327433628319</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>-0.4646017699115045</v>
+        <v>-0.4142857142857144</v>
       </c>
       <c r="AB2">
-        <v>0.1245780539021587</v>
+        <v>0.07025180545980589</v>
       </c>
       <c r="AC2">
-        <v>-0.5891798238136632</v>
+        <v>-0.4845375197455203</v>
       </c>
       <c r="AD2">
-        <v>25.2</v>
+        <v>52.2</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>25.2</v>
+        <v>52.2</v>
       </c>
       <c r="AG2">
-        <v>-42.5</v>
+        <v>-11.2</v>
       </c>
       <c r="AH2">
-        <v>0.3865030674846626</v>
+        <v>0.2679671457905544</v>
       </c>
       <c r="AI2">
-        <v>0.3111111111111111</v>
+        <v>0.6761658031088082</v>
       </c>
       <c r="AJ2">
-        <v>17</v>
+        <v>-0.08523592085235918</v>
       </c>
       <c r="AK2">
-        <v>-3.195488721804512</v>
+        <v>-0.8115942028985501</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>-1.02</v>
       </c>
       <c r="AN2">
-        <v>-4.960629921259843</v>
+        <v>-9.648798521256932</v>
       </c>
       <c r="AP2">
-        <v>8.366141732283465</v>
+        <v>2.070240295748613</v>
+      </c>
+      <c r="AQ2">
+        <v>5.401960784313725</v>
       </c>
     </row>
     <row r="3">
@@ -712,26 +697,8 @@
           <t>Coal &amp; Related Energy</t>
         </is>
       </c>
-      <c r="D3">
-        <v>0.15</v>
-      </c>
-      <c r="G3">
-        <v>-3.097560975609756</v>
-      </c>
-      <c r="H3">
-        <v>-3.097560975609756</v>
-      </c>
-      <c r="I3">
-        <v>-3.201219512195122</v>
-      </c>
-      <c r="J3">
-        <v>-3.201219512195122</v>
-      </c>
       <c r="K3">
-        <v>24.1</v>
-      </c>
-      <c r="L3">
-        <v>14.69512195121951</v>
+        <v>-29.6</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -740,7 +707,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -749,73 +716,76 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>67.7</v>
+        <v>63.4</v>
       </c>
       <c r="V3">
-        <v>1.6925</v>
+        <v>0.4446002805049089</v>
       </c>
       <c r="W3">
-        <v>0.6965317919075145</v>
+        <v>-0.5304659498207885</v>
       </c>
       <c r="X3">
-        <v>0.1463381932805294</v>
+        <v>0.08085818873074019</v>
       </c>
       <c r="Y3">
-        <v>0.5501935986269851</v>
+        <v>-0.6113241385515287</v>
       </c>
       <c r="Z3">
-        <v>0.1451327433628319</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>-0.4646017699115045</v>
+        <v>-0.4142857142857144</v>
       </c>
       <c r="AB3">
-        <v>0.1245780539021587</v>
+        <v>0.07025180545980589</v>
       </c>
       <c r="AC3">
-        <v>-0.5891798238136632</v>
+        <v>-0.4845375197455203</v>
       </c>
       <c r="AD3">
-        <v>25.2</v>
+        <v>52.2</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>25.2</v>
+        <v>52.2</v>
       </c>
       <c r="AG3">
-        <v>-42.5</v>
+        <v>-11.2</v>
       </c>
       <c r="AH3">
-        <v>0.3865030674846626</v>
+        <v>0.2679671457905544</v>
       </c>
       <c r="AI3">
-        <v>0.3111111111111111</v>
+        <v>0.6761658031088082</v>
       </c>
       <c r="AJ3">
-        <v>17</v>
+        <v>-0.08523592085235918</v>
       </c>
       <c r="AK3">
-        <v>-3.195488721804512</v>
+        <v>-0.8115942028985501</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>-1.02</v>
       </c>
       <c r="AN3">
-        <v>-4.960629921259843</v>
+        <v>-9.648798521256932</v>
       </c>
       <c r="AP3">
-        <v>8.366141732283465</v>
+        <v>2.070240295748613</v>
+      </c>
+      <c r="AQ3">
+        <v>5.401960784313725</v>
       </c>
     </row>
   </sheetData>
